--- a/spec/fixtures/Confirmation 2017 Database for all teens-test.xlsx
+++ b/spec/fixtures/Confirmation 2017 Database for all teens-test.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="224">
   <si>
     <t>Last Name</t>
   </si>
@@ -143,7 +143,7 @@
         <color indexed="10"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>vicki@kristoffs.com</t>
+      <t>justfaith@kristoffs.com</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <color indexed="10"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>vicki@kristoffs.com</t>
+      <t>justfaith@kristoffs.com</t>
     </r>
   </si>
   <si>
@@ -526,7 +526,7 @@
         <color indexed="10"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>vicki@kristoffs.com</t>
+      <t>justfaith@kristoffs.com</t>
     </r>
   </si>
   <si>
@@ -584,7 +584,7 @@
         <color indexed="10"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>vicki@kristoffs.com</t>
+      <t>justfaith@kristoffs.com</t>
     </r>
   </si>
   <si>
@@ -783,7 +783,7 @@
         <color indexed="10"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>vicki@kristoffs.com</t>
+      <t>justfaith@kristoffs.com</t>
     </r>
   </si>
   <si>
@@ -808,13 +808,22 @@
     <t>Kevin</t>
   </si>
   <si>
+    <t>karenwoomer@gmail.com</t>
+  </si>
+  <si>
     <t>Worden</t>
   </si>
   <si>
+    <t>juliebworden@gmail.com</t>
+  </si>
+  <si>
     <t>Zadell</t>
   </si>
   <si>
     <t>Carson</t>
+  </si>
+  <si>
+    <t>czadell@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -3789,7 +3798,7 @@
         <v>99</v>
       </c>
       <c r="D114" t="s" s="3">
-        <v>8</v>
+        <v>218</v>
       </c>
       <c r="E114" t="s" s="3">
         <v>4</v>
@@ -3797,7 +3806,7 @@
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="s" s="3">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B115" t="s" s="3">
         <v>13</v>
@@ -3806,7 +3815,7 @@
         <v>7</v>
       </c>
       <c r="D115" t="s" s="3">
-        <v>11</v>
+        <v>220</v>
       </c>
       <c r="E115" t="s" s="3">
         <v>4</v>
@@ -3814,16 +3823,16 @@
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="s" s="3">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B116" t="s" s="3">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C116" t="s" s="3">
         <v>7</v>
       </c>
       <c r="D116" t="s" s="3">
-        <v>14</v>
+        <v>223</v>
       </c>
       <c r="E116" s="4"/>
     </row>
@@ -3941,9 +3950,6 @@
     <hyperlink ref="D111" r:id="rId110" location="" tooltip="" display=""/>
     <hyperlink ref="D112" r:id="rId111" location="" tooltip="" display=""/>
     <hyperlink ref="D113" r:id="rId112" location="" tooltip="" display=""/>
-    <hyperlink ref="D114" r:id="rId113" location="" tooltip="" display=""/>
-    <hyperlink ref="D115" r:id="rId114" location="" tooltip="" display=""/>
-    <hyperlink ref="D116" r:id="rId115" location="" tooltip="" display=""/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/spec/fixtures/Confirmation 2017 Database for all teens-test.xlsx
+++ b/spec/fixtures/Confirmation 2017 Database for all teens-test.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="221">
   <si>
     <t>Last Name</t>
   </si>
@@ -43,7 +43,7 @@
       <rPr>
         <u val="single"/>
         <sz val="11"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>paul@kristoffs.com</t>
@@ -60,7 +60,7 @@
       <rPr>
         <u val="single"/>
         <sz val="11"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>retail@kristoffs.com</t>
@@ -77,7 +77,7 @@
       <rPr>
         <u val="single"/>
         <sz val="11"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>financial@kristoffs.com</t>
@@ -94,7 +94,7 @@
       <rPr>
         <u val="single"/>
         <sz val="11"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>paul.kristoff@kristoffs.com</t>
@@ -123,7 +123,7 @@
       <rPr>
         <u val="single"/>
         <sz val="11"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>financial@kristoffs.com</t>
@@ -140,7 +140,7 @@
       <rPr>
         <u val="single"/>
         <sz val="11"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>justfaith@kristoffs.com</t>
@@ -421,7 +421,7 @@
       <rPr>
         <u val="single"/>
         <sz val="11"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>retail@kristoffs.com</t>
@@ -438,7 +438,7 @@
       <rPr>
         <u val="single"/>
         <sz val="11"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>justfaith@kristoffs.com</t>
@@ -523,7 +523,7 @@
       <rPr>
         <u val="single"/>
         <sz val="11"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>justfaith@kristoffs.com</t>
@@ -581,7 +581,7 @@
       <rPr>
         <u val="single"/>
         <sz val="11"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>justfaith@kristoffs.com</t>
@@ -763,7 +763,7 @@
       <rPr>
         <u val="single"/>
         <sz val="11"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>paul@kristoffs.com</t>
@@ -780,7 +780,7 @@
       <rPr>
         <u val="single"/>
         <sz val="11"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>justfaith@kristoffs.com</t>
@@ -808,22 +808,13 @@
     <t>Kevin</t>
   </si>
   <si>
-    <t>karenwoomer@gmail.com</t>
-  </si>
-  <si>
     <t>Worden</t>
   </si>
   <si>
-    <t>juliebworden@gmail.com</t>
-  </si>
-  <si>
     <t>Zadell</t>
   </si>
   <si>
     <t>Carson</t>
-  </si>
-  <si>
-    <t>czadell@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -859,16 +850,22 @@
     <font>
       <u val="single"/>
       <sz val="11"/>
-      <color indexed="10"/>
+      <color indexed="11"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -881,16 +878,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -907,13 +904,13 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -939,6 +936,7 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ff0000ff"/>
     </indexedColors>
@@ -1091,9 +1089,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -1173,7 +1171,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1201,10 +1199,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1460,9 +1458,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -1750,7 +1748,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1778,10 +1776,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -3798,7 +3796,7 @@
         <v>99</v>
       </c>
       <c r="D114" t="s" s="3">
-        <v>218</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s" s="3">
         <v>4</v>
@@ -3806,7 +3804,7 @@
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="s" s="3">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B115" t="s" s="3">
         <v>13</v>
@@ -3815,7 +3813,7 @@
         <v>7</v>
       </c>
       <c r="D115" t="s" s="3">
-        <v>220</v>
+        <v>14</v>
       </c>
       <c r="E115" t="s" s="3">
         <v>4</v>
@@ -3823,16 +3821,16 @@
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="s" s="3">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B116" t="s" s="3">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C116" t="s" s="3">
         <v>7</v>
       </c>
       <c r="D116" t="s" s="3">
-        <v>223</v>
+        <v>17</v>
       </c>
       <c r="E116" s="4"/>
     </row>
@@ -3950,6 +3948,9 @@
     <hyperlink ref="D111" r:id="rId110" location="" tooltip="" display=""/>
     <hyperlink ref="D112" r:id="rId111" location="" tooltip="" display=""/>
     <hyperlink ref="D113" r:id="rId112" location="" tooltip="" display=""/>
+    <hyperlink ref="D114" r:id="rId113" location="" tooltip="" display=""/>
+    <hyperlink ref="D115" r:id="rId114" location="" tooltip="" display=""/>
+    <hyperlink ref="D116" r:id="rId115" location="" tooltip="" display=""/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
